--- a/natmiOut/OldD0/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.6882743130483</v>
+        <v>13.032878</v>
       </c>
       <c r="H2">
-        <v>11.6882743130483</v>
+        <v>39.098634</v>
       </c>
       <c r="I2">
-        <v>0.02701447864004533</v>
+        <v>0.02949184097968156</v>
       </c>
       <c r="J2">
-        <v>0.02701447864004533</v>
+        <v>0.02949184097968156</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>1236.394663610909</v>
+        <v>1525.427510142314</v>
       </c>
       <c r="R2">
-        <v>1236.394663610909</v>
+        <v>13728.84759128083</v>
       </c>
       <c r="S2">
-        <v>0.008219896493319534</v>
+        <v>0.009571180753587873</v>
       </c>
       <c r="T2">
-        <v>0.008219896493319534</v>
+        <v>0.009571180753587873</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.6882743130483</v>
+        <v>13.032878</v>
       </c>
       <c r="H3">
-        <v>11.6882743130483</v>
+        <v>39.098634</v>
       </c>
       <c r="I3">
-        <v>0.02701447864004533</v>
+        <v>0.02949184097968156</v>
       </c>
       <c r="J3">
-        <v>0.02701447864004533</v>
+        <v>0.02949184097968156</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>1186.257755441296</v>
+        <v>1323.880233800779</v>
       </c>
       <c r="R3">
-        <v>1186.257755441296</v>
+        <v>11914.92210420701</v>
       </c>
       <c r="S3">
-        <v>0.00788657234709127</v>
+        <v>0.008306587451426836</v>
       </c>
       <c r="T3">
-        <v>0.00788657234709127</v>
+        <v>0.008306587451426834</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.6882743130483</v>
+        <v>13.032878</v>
       </c>
       <c r="H4">
-        <v>11.6882743130483</v>
+        <v>39.098634</v>
       </c>
       <c r="I4">
-        <v>0.02701447864004533</v>
+        <v>0.02949184097968156</v>
       </c>
       <c r="J4">
-        <v>0.02701447864004533</v>
+        <v>0.02949184097968156</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>1640.726877503197</v>
+        <v>1851.017818113035</v>
       </c>
       <c r="R4">
-        <v>1640.726877503197</v>
+        <v>16659.16036301732</v>
       </c>
       <c r="S4">
-        <v>0.01090800979963453</v>
+        <v>0.01161407277466685</v>
       </c>
       <c r="T4">
-        <v>0.01090800979963453</v>
+        <v>0.01161407277466685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>388.341762861793</v>
+        <v>395.9197996666667</v>
       </c>
       <c r="H5">
-        <v>388.341762861793</v>
+        <v>1187.759399</v>
       </c>
       <c r="I5">
-        <v>0.8975533921338508</v>
+        <v>0.8959190573622122</v>
       </c>
       <c r="J5">
-        <v>0.8975533921338508</v>
+        <v>0.8959190573622122</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>41079.09092478791</v>
+        <v>46340.25993503255</v>
       </c>
       <c r="R5">
-        <v>41079.09092478791</v>
+        <v>417062.339415293</v>
       </c>
       <c r="S5">
-        <v>0.2731052514051299</v>
+        <v>0.2907584929847395</v>
       </c>
       <c r="T5">
-        <v>0.2731052514051299</v>
+        <v>0.2907584929847395</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>388.341762861793</v>
+        <v>395.9197996666667</v>
       </c>
       <c r="H6">
-        <v>388.341762861793</v>
+        <v>1187.759399</v>
       </c>
       <c r="I6">
-        <v>0.8975533921338508</v>
+        <v>0.8959190573622122</v>
       </c>
       <c r="J6">
-        <v>0.8975533921338508</v>
+        <v>0.8959190573622122</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>39413.29708888421</v>
+        <v>40217.54803114586</v>
       </c>
       <c r="R6">
-        <v>39413.29708888421</v>
+        <v>361957.9322803127</v>
       </c>
       <c r="S6">
-        <v>0.2620305894761076</v>
+        <v>0.2523419953507245</v>
       </c>
       <c r="T6">
-        <v>0.2620305894761076</v>
+        <v>0.2523419953507244</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>388.341762861793</v>
+        <v>395.9197996666667</v>
       </c>
       <c r="H7">
-        <v>388.341762861793</v>
+        <v>1187.759399</v>
       </c>
       <c r="I7">
-        <v>0.8975533921338508</v>
+        <v>0.8959190573622122</v>
       </c>
       <c r="J7">
-        <v>0.8975533921338508</v>
+        <v>0.8959190573622122</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>54512.98890829545</v>
+        <v>56231.21798015321</v>
       </c>
       <c r="R7">
-        <v>54512.98890829545</v>
+        <v>506080.9618213788</v>
       </c>
       <c r="S7">
-        <v>0.3624175512526133</v>
+        <v>0.3528185690267482</v>
       </c>
       <c r="T7">
-        <v>0.3624175512526133</v>
+        <v>0.3528185690267482</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>32.6369955222845</v>
+        <v>32.96202033333334</v>
       </c>
       <c r="H8">
-        <v>32.6369955222845</v>
+        <v>98.886061</v>
       </c>
       <c r="I8">
-        <v>0.07543212922610387</v>
+        <v>0.07458910165810628</v>
       </c>
       <c r="J8">
-        <v>0.07543212922610387</v>
+        <v>0.07458910165810628</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>3452.366535836534</v>
+        <v>3858.025265512114</v>
       </c>
       <c r="R8">
-        <v>3452.366535836534</v>
+        <v>34722.22738960903</v>
       </c>
       <c r="S8">
-        <v>0.02295229542539255</v>
+        <v>0.0242068908044541</v>
       </c>
       <c r="T8">
-        <v>0.02295229542539255</v>
+        <v>0.0242068908044541</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>32.6369955222845</v>
+        <v>32.96202033333334</v>
       </c>
       <c r="H9">
-        <v>32.6369955222845</v>
+        <v>98.886061</v>
       </c>
       <c r="I9">
-        <v>0.07543212922610387</v>
+        <v>0.07458910165810628</v>
       </c>
       <c r="J9">
-        <v>0.07543212922610387</v>
+        <v>0.07458910165810628</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>3312.369988561275</v>
+        <v>3348.283256042093</v>
       </c>
       <c r="R9">
-        <v>3312.369988561275</v>
+        <v>30134.54930437883</v>
       </c>
       <c r="S9">
-        <v>0.0220215593409582</v>
+        <v>0.02100855271372469</v>
       </c>
       <c r="T9">
-        <v>0.0220215593409582</v>
+        <v>0.02100855271372469</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>32.6369955222845</v>
+        <v>32.96202033333334</v>
       </c>
       <c r="H10">
-        <v>32.6369955222845</v>
+        <v>98.886061</v>
       </c>
       <c r="I10">
-        <v>0.07543212922610387</v>
+        <v>0.07458910165810628</v>
       </c>
       <c r="J10">
-        <v>0.07543212922610387</v>
+        <v>0.07458910165810628</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>4581.377397567106</v>
+        <v>4681.489917883384</v>
       </c>
       <c r="R10">
-        <v>4581.377397567106</v>
+        <v>42133.40926095045</v>
       </c>
       <c r="S10">
-        <v>0.03045827445975313</v>
+        <v>0.02937365813992749</v>
       </c>
       <c r="T10">
-        <v>0.03045827445975313</v>
+        <v>0.02937365813992749</v>
       </c>
     </row>
   </sheetData>
